--- a/data/bx_genes.xlsx
+++ b/data/bx_genes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyang21/Documents/coworkers/zhikai/mediation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF00CD95-F7B7-0443-A700-ABD0BC2631ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8890AAF9-E57B-B04C-ACEB-7F6139568725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28180" yWindow="-2360" windowWidth="27640" windowHeight="16940" xr2:uid="{E9C65AD3-C16D-654E-8830-9AC8E8374C27}"/>
   </bookViews>
@@ -27,15 +27,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="110">
   <si>
-    <t>Gene ID</t>
-  </si>
-  <si>
     <t>Gene</t>
   </si>
   <si>
-    <t>Line </t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -355,6 +349,12 @@
   </si>
   <si>
     <t>transcripts</t>
+  </si>
+  <si>
+    <t>GeneID</t>
+  </si>
+  <si>
+    <t>Line</t>
   </si>
 </sst>
 </file>
@@ -735,7 +735,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -747,1152 +747,1152 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
